--- a/app/static/inv_ref_files/2020-10_БДЖ - Пътнически превози_411-2-145_1_invoice_reference.xlsx
+++ b/app/static/inv_ref_files/2020-10_БДЖ - Пътнически превози_411-2-145_1_invoice_reference.xlsx
@@ -696,7 +696,7 @@
         <v>100.9</v>
       </c>
       <c r="G12" s="8" t="n">
-        <v>1151758.6677</v>
+        <v>1151758.67</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         <v>21.47</v>
       </c>
       <c r="G14" s="8" t="n">
-        <v>245076.89391</v>
+        <v>245076.89</v>
       </c>
     </row>
     <row r="15">
@@ -741,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="8" t="n">
-        <v>22829.706</v>
+        <v>22829.71</v>
       </c>
     </row>
     <row r="16">

--- a/app/static/inv_ref_files/2020-10_БДЖ - Пътнически превози_411-2-145_1_invoice_reference.xlsx
+++ b/app/static/inv_ref_files/2020-10_БДЖ - Пътнически превози_411-2-145_1_invoice_reference.xlsx
@@ -170,13 +170,10 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -604,7 +601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,7 +634,7 @@
     <row r="5"/>
     <row r="6"/>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>КЛИЕНТ: БДЖ - Пътнически превози</t>
         </is>
@@ -645,39 +642,39 @@
     </row>
     <row r="8"/>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>ПЕРИОД: October/2020</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>БРОЙ ОБЕКТИ: 1</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Данни за фактуриране</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="6" t="inlineStr">
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="4" t="n"/>
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>MWh</t>
         </is>
       </c>
-      <c r="F11" s="6" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>лв/MWh</t>
         </is>
       </c>
-      <c r="G11" s="6" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>лева</t>
         </is>
@@ -689,13 +686,13 @@
           <t>Доставка на електрическа енергия</t>
         </is>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="6" t="n">
         <v>11414.853</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="7" t="n">
         <v>100.9</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="7" t="n">
         <v>1151758.67</v>
       </c>
     </row>
@@ -705,10 +702,10 @@
           <t>Мрежови услуги (по Решение № Ц-29/01.07.2020г. на КЕВР)</t>
         </is>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="8" t="n">
         <v>11414.853</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -718,13 +715,13 @@
           <t>Такса за задължения към обществото (по Решение № Ц-29/01.07.2020г. на КЕВР)</t>
         </is>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="8" t="n">
         <v>11414.853</v>
       </c>
-      <c r="F14" s="10" t="n">
+      <c r="F14" s="9" t="n">
         <v>21.47</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="7" t="n">
         <v>245076.89</v>
       </c>
     </row>
@@ -734,13 +731,13 @@
           <t>Акциз - съгласно чл. 34 а от ЗАДС</t>
         </is>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="8" t="n">
         <v>11414.853</v>
       </c>
-      <c r="F15" s="10" t="n">
+      <c r="F15" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="7" t="n">
         <v>22829.71</v>
       </c>
     </row>
@@ -750,57 +747,57 @@
           <t>Други такси</t>
         </is>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="8" t="n">
         <v>11414.853</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="inlineStr">
+      <c r="A17" s="10" t="inlineStr">
         <is>
           <t>Сума</t>
         </is>
       </c>
-      <c r="B17" s="11" t="n"/>
-      <c r="C17" s="11" t="n"/>
-      <c r="D17" s="11" t="n"/>
-      <c r="E17" s="11" t="n"/>
-      <c r="F17" s="11" t="n"/>
-      <c r="G17" s="12" t="n">
+      <c r="B17" s="10" t="n"/>
+      <c r="C17" s="10" t="n"/>
+      <c r="D17" s="10" t="n"/>
+      <c r="E17" s="10" t="n"/>
+      <c r="F17" s="10" t="n"/>
+      <c r="G17" s="11" t="n">
         <v>1419665.27</v>
       </c>
     </row>
     <row r="18"/>
     <row r="19">
-      <c r="A19" s="13" t="inlineStr">
+      <c r="A19" s="12" t="inlineStr">
         <is>
           <t>ДДС (20%)</t>
         </is>
       </c>
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="13" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="14" t="n">
+      <c r="B19" s="12" t="n"/>
+      <c r="C19" s="12" t="n"/>
+      <c r="D19" s="12" t="n"/>
+      <c r="E19" s="12" t="n"/>
+      <c r="F19" s="12" t="n"/>
+      <c r="G19" s="13" t="n">
         <v>283933.05</v>
       </c>
     </row>
     <row r="20"/>
     <row r="21">
-      <c r="A21" s="15" t="inlineStr">
+      <c r="A21" s="14" t="inlineStr">
         <is>
           <t>ОБЩО</t>
         </is>
       </c>
-      <c r="B21" s="5" t="n"/>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="5" t="n"/>
-      <c r="E21" s="5" t="n"/>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="16" t="n">
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="4" t="n"/>
+      <c r="D21" s="4" t="n"/>
+      <c r="E21" s="4" t="n"/>
+      <c r="F21" s="4" t="n"/>
+      <c r="G21" s="15" t="n">
         <v>1703598.32</v>
       </c>
     </row>
@@ -810,107 +807,106 @@
     <row r="25"/>
     <row r="26"/>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>Продажба на енергия</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="17" t="inlineStr">
+      <c r="A28" s="16" t="inlineStr">
         <is>
           <t>№</t>
         </is>
       </c>
-      <c r="B28" s="17" t="inlineStr">
+      <c r="B28" s="16" t="inlineStr">
         <is>
           <t>Обект (ИТН №)</t>
         </is>
       </c>
-      <c r="C28" s="17" t="inlineStr">
+      <c r="C28" s="16" t="inlineStr">
         <is>
           <t>Адрес</t>
         </is>
       </c>
-      <c r="D28" s="17" t="inlineStr">
+      <c r="D28" s="16" t="inlineStr">
         <is>
           <t>Потребление (kWh)</t>
         </is>
       </c>
-      <c r="E28" s="17" t="inlineStr">
+      <c r="E28" s="16" t="inlineStr">
         <is>
           <t>Сума за енергия</t>
         </is>
       </c>
-      <c r="F28" s="17" t="inlineStr">
+      <c r="F28" s="16" t="inlineStr">
         <is>
           <t>Задължение към обществото</t>
         </is>
       </c>
-      <c r="G28" s="17" t="inlineStr">
+      <c r="G28" s="16" t="inlineStr">
         <is>
           <t>Мрежови услуги (лв.)</t>
         </is>
       </c>
-      <c r="H28" s="17" t="inlineStr">
+      <c r="H28" s="16" t="inlineStr">
         <is>
           <t>Акциз</t>
         </is>
       </c>
-      <c r="I28" s="17" t="inlineStr">
+      <c r="I28" s="16" t="inlineStr">
         <is>
           <t>Обща сума (без ДДС)</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="18" t="n"/>
-      <c r="B29" s="18" t="n"/>
-      <c r="C29" s="18" t="n"/>
-      <c r="D29" s="18" t="n"/>
-      <c r="E29" s="18" t="n"/>
-      <c r="F29" s="18" t="n"/>
-      <c r="G29" s="18" t="n"/>
-      <c r="H29" s="18" t="n"/>
-      <c r="I29" s="18" t="n"/>
+      <c r="A29" s="17" t="n"/>
+      <c r="B29" s="17" t="n"/>
+      <c r="C29" s="17" t="n"/>
+      <c r="D29" s="17" t="n"/>
+      <c r="E29" s="17" t="n"/>
+      <c r="F29" s="17" t="n"/>
+      <c r="G29" s="17" t="n"/>
+      <c r="H29" s="17" t="n"/>
+      <c r="I29" s="17" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="n">
+      <c r="A30" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="B30" s="19" t="inlineStr">
+      <c r="B30" s="18" t="inlineStr">
         <is>
           <t>A002001</t>
         </is>
       </c>
-      <c r="C30" s="19" t="inlineStr">
+      <c r="C30" s="18" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="D30" s="20" t="n">
+      <c r="D30" s="19" t="n">
         <v>11414853</v>
       </c>
-      <c r="E30" s="21" t="n">
+      <c r="E30" s="20" t="n">
         <v>1151758.6677</v>
       </c>
-      <c r="F30" s="21" t="n">
+      <c r="F30" s="20" t="n">
         <v>245076.89391</v>
       </c>
-      <c r="G30" s="21" t="n">
+      <c r="G30" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="H30" s="21" t="n">
+      <c r="H30" s="20" t="n">
         <v>22829.706</v>
       </c>
-      <c r="I30" s="21" t="n">
+      <c r="I30" s="20" t="n">
         <v>1419665.26761</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A4:J4"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>

--- a/app/static/inv_ref_files/2020-10_БДЖ - Пътнически превози_411-2-145_1_invoice_reference.xlsx
+++ b/app/static/inv_ref_files/2020-10_БДЖ - Пътнически превози_411-2-145_1_invoice_reference.xlsx
@@ -644,7 +644,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>ПЕРИОД: October/2020</t>
+          <t>ПЕРИОД: 10/2020</t>
         </is>
       </c>
     </row>
